--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD657AFA-7B5C-450E-A0C4-C64AA69DBE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8FE62-2A07-4B95-9F33-146B32122DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{5EB24EE3-3734-4C03-84A5-A26E066049AB}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{6651CF7A-A445-47DC-8DFB-EB032A4780B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F16D86F-6E39-43B6-915D-152C93FB2008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78618BBF-2129-4A86-9CD4-2A87FDCDACFD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8FE62-2A07-4B95-9F33-146B32122DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE84FB4-867D-488B-8832-C3D4B383CA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{6651CF7A-A445-47DC-8DFB-EB032A4780B4}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{AF7EC7E0-6478-407D-9DDB-8E63111678DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,16 +401,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78618BBF-2129-4A86-9CD4-2A87FDCDACFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51A0D80-B0D5-4581-823A-E7D7F1E18519}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>73.724624359681926</v>
+        <v>76.228572936313057</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE84FB4-867D-488B-8832-C3D4B383CA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1878FF-7F7D-4A35-AAB0-4C018D743B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{AF7EC7E0-6478-407D-9DDB-8E63111678DE}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{8477D432-1067-4664-93E7-C0A2702523A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51A0D80-B0D5-4581-823A-E7D7F1E18519}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037CCC6-1586-48E9-8A19-4487716D8701}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>76.228572936313057</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/F/Angle/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\F\Angle\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1878FF-7F7D-4A35-AAB0-4C018D743B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DDD0D57-67D7-43B5-986E-EE34E26EA7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{8477D432-1067-4664-93E7-C0A2702523A9}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{D9034544-81C2-45E4-8187-FAEEC82025D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037CCC6-1586-48E9-8A19-4487716D8701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E45BD74-D128-4A19-BD3F-8F0136FFE836}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
